--- a/Final Project Rubric - Machine Learning.xlsx
+++ b/Final Project Rubric - Machine Learning.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ace5a146edcda5cb/Lighthouse/ml-project-supervised-learning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AE340F619038501FECF30DB4C48C08E3661E1A90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F046FC85-970E-4AE0-86B7-8E754011FC7C}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -144,20 +153,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Visualization
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to call attention to trends and patterns in data using charts and graphs.</t>
     </r>
@@ -193,20 +203,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Sources Identification
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to establish the availability and accessibility of data.</t>
     </r>
@@ -232,20 +243,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Acquisition
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to acquire data.</t>
     </r>
@@ -272,20 +284,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Audit
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to conduct data quality assessment.</t>
     </r>
@@ -311,20 +324,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Exploratory Data Analysis
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to establish data specifics and relationships.</t>
     </r>
@@ -359,20 +373,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Cleaning
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ability to identify and resolve data issues to prepare data for visualization, reporting or modelling. </t>
     </r>
@@ -398,38 +413,40 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prepare and Preprocess Data
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Preprocess and transform data to ensure that it is in the optimal format, layout or shape.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Engineer new features when appropriate.</t>
     </r>
@@ -455,20 +472,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Wrangling?
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Combining data from a variety of sources and file types to create a </t>
     </r>
@@ -482,20 +500,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Additional Data Preparation for Modelling
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to design data modelling pipeline based on the business and data understanding.</t>
     </r>
@@ -524,20 +543,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create and Train Models
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to develop a data science/analytical model.</t>
     </r>
@@ -555,43 +575,48 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Selects and applies different modeling and variable selection techniques on a </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>case by case</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> basis to find an </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>optimal</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> solution. </t>
     </r>
@@ -605,29 +630,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Interpreting Model Output
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to understand model outputs and interpret in relation to business proble</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ms
 </t>
@@ -651,20 +678,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Test &amp; Evaluate Models
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to apply relevant testing and model evaluation techniques.</t>
     </r>
@@ -699,20 +727,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Business Insights Development
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ability to develop clear and actionable reports and visualizations based on the analysis results to help support business decisions. </t>
     </r>
@@ -738,20 +767,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Present to Stakeholders
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ability to present insights to the stakeholders. 
 </t>
@@ -787,20 +817,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Critical &amp; analytical thinking
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use research skills, critical thinking and data science/analytics techniques to interpret data and analyse business environments. </t>
     </r>
@@ -827,20 +858,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Creativity and openness to innovation
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to identify, develop and engage with new and different approaches and perspectives.</t>
     </r>
@@ -877,20 +909,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Business and Data Understanding
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to utilise understanding of the orgnisation and its data</t>
     </r>
@@ -916,20 +949,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Tool Installation &amp; Set Up
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to identify, understand and install appropriate data science/analytics tools and programming languages.</t>
     </r>
@@ -955,20 +989,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Design Thinking
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to design dashboards that serve the end user</t>
     </r>
@@ -994,20 +1029,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Coding Comprehension
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to create code that can be read and understood by others</t>
     </r>
@@ -1033,20 +1069,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Collaboration
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to contribute to projects executed in group setting</t>
     </r>
@@ -1072,20 +1109,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Communication
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to share knowledge and listen to the ideas of others.</t>
     </r>
@@ -1112,20 +1150,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Time Management
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to stay on task and meet deadlines.</t>
     </r>
@@ -1151,20 +1190,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Presentation
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to share analysis and conclusions in clear, concise and well thought out manner.</t>
     </r>
@@ -1187,20 +1227,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Organization
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ability to implement best practices for file management.</t>
     </r>
@@ -1208,25 +1249,28 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Files are not properly organized, could not be shared easily with others. Teammates unable to work with files created. Missing </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <sz val="8.0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>read.me</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> file .</t>
     </r>
@@ -1234,25 +1278,28 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Files are somewhat organized but </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <sz val="8.0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>read.me</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> file doesn't match content of folder, does not have enough explanations. Naming of files and file structure could be improved so work is more easily shared</t>
     </r>
@@ -1260,25 +1307,28 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Keeps files organized and approporiately named. Able to maximize Github file management to easily collaborate with others. Uses generic </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <sz val="8.0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>read.me</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> that provides adequate description.</t>
     </r>
@@ -1286,17 +1336,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <sz val="8.0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Read.me</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> is well written,  easily understood, and precise instructions are included. Files created can easily be shared with others. File organization allows for easy collaboration with others.</t>
     </r>
@@ -1305,73 +1357,97 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFF8F9FA"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFF8F9FA"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1379,7 +1455,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1425,7 +1501,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1436,16 +1518,22 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1455,6 +1543,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1463,19 +1552,29 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1484,202 +1583,197 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1869,987 +1963,995 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F1" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="10" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="32" t="b">
+      <c r="H8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5" t="b">
+      <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="29" t="s">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="5" t="b">
+      <c r="H10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="36" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="32" t="b">
+      <c r="H12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="32" t="b">
+      <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="36" t="s">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="5" t="b">
+      <c r="H14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="37" t="s">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="5" t="b">
+      <c r="H15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="33" t="s">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="36" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="32" t="b">
+      <c r="H17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="37" t="s">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="32" t="b">
+      <c r="H18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="36" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="5" t="b">
+      <c r="H19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="37" t="s">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="32" t="b">
+      <c r="H20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="44" t="s">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="38" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="32" t="b">
+      <c r="H22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="48" t="s">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="32" t="b">
+      <c r="H23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="50" t="s">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="48" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="32" t="b">
+      <c r="H25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="50" t="s">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="48" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="5" t="b">
+      <c r="H27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="5" t="b">
+      <c r="H28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="50" t="s">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="48" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="5" t="b">
+      <c r="H30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="47" t="s">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="5" t="b">
+      <c r="H31" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="50" t="s">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="48" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="5" t="b">
+      <c r="H33" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="5" t="b">
+      <c r="H34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="48" t="s">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="5" t="b">
+      <c r="H35" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H36" s="32" t="b">
+      <c r="H36" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="36" t="s">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="5" t="b">
+      <c r="H37" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="47" t="s">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="5" t="b">
+      <c r="H38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="48" t="s">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="H39" s="5" t="b">
+      <c r="H39" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H40" s="5" t="b">
+      <c r="H40" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="54" t="s">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="H41" s="5" t="b">
+      <c r="H41" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2859,6 +2961,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>